--- a/GitHub_task/Statistical_Programming/ADaM coding/ADaM-like/ADMH.xlsx
+++ b/GitHub_task/Statistical_Programming/ADaM coding/ADaM-like/ADMH.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t xml:space="preserve">STUDYID</t>
   </si>
@@ -98,51 +98,30 @@
     <t xml:space="preserve">ONGOING</t>
   </si>
   <si>
-    <t xml:space="preserve">ITP History</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Immune thrombocytopenia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blood and lymphatic system disorders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.2015</t>
+    <t xml:space="preserve">XXXX1-PX-0X-001053</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUNG SILICOSIS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SILICOSIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INJURY, POISONING AND PROCEDURAL COMPLICATIONS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01.01.2014</t>
   </si>
   <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">XXXX1-PX-0X-001053</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LUNG SILICOSIS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SILICOSIS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">INJURY, POISONING AND PROCEDURAL COMPLICATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.01.2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02.2023</t>
-  </si>
-  <si>
     <t xml:space="preserve">XXXX1-PX-0X-001054</t>
   </si>
   <si>
@@ -171,24 +150,6 @@
   </si>
   <si>
     <t xml:space="preserve">NEOPLASMS BENIGN, MALIGNANT AND UNSPECIFIED (INCL CYSTS AND POLYPS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022-02</t>
-  </si>
-  <si>
-    <t xml:space="preserve">01.02.2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XXXX1-PX-0X-005009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1999-11-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.11.1999</t>
   </si>
 </sst>
 </file>
@@ -629,37 +590,37 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
-        <v>61</v>
-      </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M3"/>
       <c r="N3" t="s">
@@ -680,10 +641,10 @@
         <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D4" t="n">
         <v>2</v>
@@ -695,7 +656,7 @@
         <v>20</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
         <v>37</v>
@@ -710,7 +671,7 @@
         <v>40</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="M4"/>
       <c r="N4" t="s">
@@ -731,37 +692,33 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D5" t="n">
         <v>2</v>
       </c>
       <c r="E5" t="n">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
-      <c r="K5" t="s">
         <v>42</v>
       </c>
+      <c r="J5"/>
+      <c r="K5"/>
       <c r="L5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M5"/>
       <c r="N5" t="s">
@@ -782,22 +739,22 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
         <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H6" t="s">
         <v>44</v>
@@ -805,14 +762,10 @@
       <c r="I6" t="s">
         <v>45</v>
       </c>
-      <c r="J6" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" t="s">
-        <v>47</v>
-      </c>
+      <c r="J6"/>
+      <c r="K6"/>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="s">
@@ -825,202 +778,6 @@
         <v>27</v>
       </c>
       <c r="Q6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M7"/>
-      <c r="N7" t="s">
-        <v>25</v>
-      </c>
-      <c r="O7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>3</v>
-      </c>
-      <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s">
-        <v>50</v>
-      </c>
-      <c r="H8" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8"/>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O8" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>61</v>
-      </c>
-      <c r="F9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" t="s">
-        <v>29</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
-      </c>
-      <c r="I9" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" t="s">
-        <v>53</v>
-      </c>
-      <c r="K9" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9"/>
-      <c r="N9" t="s">
-        <v>25</v>
-      </c>
-      <c r="O9" t="s">
-        <v>26</v>
-      </c>
-      <c r="P9" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="n">
-        <v>61</v>
-      </c>
-      <c r="F10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K10" t="s">
-        <v>58</v>
-      </c>
-      <c r="L10" t="s">
-        <v>25</v>
-      </c>
-      <c r="M10"/>
-      <c r="N10" t="s">
-        <v>25</v>
-      </c>
-      <c r="O10" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" t="s">
         <v>27</v>
       </c>
     </row>
